--- a/Inputs/Ison_Secure/benefits.xlsx
+++ b/Inputs/Ison_Secure/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="105">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -160,6 +160,12 @@
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
   </si>
   <si>
+    <t xml:space="preserve">Out-patient benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicines and Diagnostics covered in full Consultations covered with 20% up to USD 13.5 co-pay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Out-patient Consultations</t>
   </si>
   <si>
@@ -236,6 +242,28 @@
   </si>
   <si>
     <t xml:space="preserve">Dental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Available (Optional Benefits Available)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 3,000 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Waiting Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 months wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Benefits</t>
   </si>
   <si>
     <t xml:space="preserve">Not Available
@@ -243,21 +271,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 3,000 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental Waiting Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical Benefits</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to USD 500 with 20% co-pay(9 months wait)</t>
   </si>
   <si>
@@ -312,9 +325,6 @@
     <t xml:space="preserve">Semi Annual Surcharge</t>
   </si>
   <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quarterly Surcharge</t>
   </si>
   <si>
@@ -349,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">Routine Maternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -364,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -422,6 +435,13 @@
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -493,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,11 +550,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,13 +643,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="61.18"/>
@@ -886,11 +910,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -911,13 +935,13 @@
         <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,117 +949,117 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>57</v>
@@ -1069,156 +1093,160 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>80</v>
+      <c r="D36" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,16 +1254,16 @@
         <v>17</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,61 +1271,61 @@
         <v>17</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,163 +1333,180 @@
         <v>20</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>94</v>
+      <c r="B47" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>96</v>
+      <c r="B48" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>98</v>
+      <c r="B49" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>62</v>
+      <c r="B50" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>99</v>
+      <c r="B51" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>100</v>
+      <c r="B52" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Ison_Secure/benefits.xlsx
+++ b/Inputs/Ison_Secure/benefits.xlsx
@@ -645,11 +645,11 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="61.18"/>

--- a/Inputs/Ison_Secure/benefits.xlsx
+++ b/Inputs/Ison_Secure/benefits.xlsx
@@ -646,12 +646,12 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="61.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="62.15"/>
   </cols>
@@ -1512,7 +1512,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
